--- a/Progress Reports/CS2 Project Progress Report.xlsx
+++ b/Progress Reports/CS2 Project Progress Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4BFBB-C0A2-4363-8B0D-0B70B367FF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7E61E-7F90-49A5-AF64-7A272C53F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Computer Science 2 Project</t>
   </si>
@@ -115,6 +115,78 @@
   </si>
   <si>
     <t>intelligences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a menu </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code the continuation of menu such </t>
+  </si>
+  <si>
+    <t>as the showing of the quiz</t>
+  </si>
+  <si>
+    <t>Almost done</t>
+  </si>
+  <si>
+    <t>Currently we're testing an</t>
+  </si>
+  <si>
+    <t>implementation of a GUI</t>
+  </si>
+  <si>
+    <t>with the tkinter python library</t>
+  </si>
+  <si>
+    <t>by the next or next next week we will</t>
+  </si>
+  <si>
+    <t>begin the implementation of it</t>
+  </si>
+  <si>
+    <t>We are currently struggling in locating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effective puzzles that can be used for </t>
+  </si>
+  <si>
+    <t>the quiz since the questions must</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deal with an important aspect of that </t>
+  </si>
+  <si>
+    <t>type of intelligence</t>
+  </si>
+  <si>
+    <t>We aim to focus on an effective addition</t>
+  </si>
+  <si>
+    <t>of our GUI to our code and search more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiently for plausible and effective </t>
+  </si>
+  <si>
+    <t>puzzles.</t>
+  </si>
+  <si>
+    <t>We have created a separate program</t>
+  </si>
+  <si>
+    <t>and its shown that the GUI works well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so we just have to add it to our code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small progress however we have ~20% </t>
+  </si>
+  <si>
+    <t>of the amount of questions we need</t>
   </si>
 </sst>
 </file>
@@ -381,6 +453,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2148839</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEF0F68-591A-4914-9514-3F3D0C34E037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2202180" y="1440180"/>
+          <a:ext cx="2148839" cy="2369819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,7 +713,7 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +724,7 @@
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -616,13 +743,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -630,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -641,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -652,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>23</v>
@@ -661,100 +788,100 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
@@ -810,7 +937,9 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -819,28 +948,32 @@
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -848,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -859,98 +992,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
@@ -963,20 +1136,28 @@
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -994,6 +1175,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1013,7 +1195,7 @@
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,19 +1204,19 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1042,7 +1224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1053,98 +1235,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
@@ -1207,7 +1389,7 @@
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,19 +1398,19 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1247,99 +1429,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>

--- a/Progress Reports/CS2 Project Progress Report.xlsx
+++ b/Progress Reports/CS2 Project Progress Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7E61E-7F90-49A5-AF64-7A272C53F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFD35FC-7E92-4F1B-8F06-4E39EEB9ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Computer Science 2 Project</t>
   </si>
@@ -187,6 +187,72 @@
   </si>
   <si>
     <t>of the amount of questions we need</t>
+  </si>
+  <si>
+    <t>Cuddy Esmeres</t>
+  </si>
+  <si>
+    <t>Xymon Malquisto</t>
+  </si>
+  <si>
+    <t>Gather more puzzle questions needed</t>
+  </si>
+  <si>
+    <t>to begin implementation on the code</t>
+  </si>
+  <si>
+    <t>Anagram</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Linguistic</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puzzles collected for linguistic, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpersonal, intrapersonal, and </t>
+  </si>
+  <si>
+    <t>naturalistic type intelligence</t>
+  </si>
+  <si>
+    <t>Creation of effective and optimized</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>More efficient and vast searching for</t>
+  </si>
+  <si>
+    <t>effective puzzle questions</t>
+  </si>
+  <si>
+    <t>Conceptualization and use of internet</t>
+  </si>
+  <si>
+    <t>Work with pair to efficiently search</t>
+  </si>
+  <si>
+    <t>for the last needed puzzle questions</t>
+  </si>
+  <si>
+    <t>Split the required work so that progress</t>
+  </si>
+  <si>
+    <t>can be done quickly</t>
   </si>
 </sst>
 </file>
@@ -499,6 +565,205 @@
         <a:xfrm>
           <a:off x="2202180" y="1440180"/>
           <a:ext cx="2148839" cy="2369819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 1" descr="Open photo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CAC64C-0217-4046-A3DE-3FE851D92044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2202180" y="1607820"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="AutoShape 2" descr="Open photo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FB8E45-3CB8-4B95-B5A9-8A897BBBBD10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2202180" y="1607820"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="AutoShape 3" descr="Open photo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D41B4C7-AFCF-4ABD-97FA-06CF22E1FFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2202180" y="1607820"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2103120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69BBBDC-55F4-4118-A4B9-FC28142D08B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139440" y="1485899"/>
+          <a:ext cx="1165860" cy="2103121"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,7 +1202,7 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1186,7 +1451,9 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1202,13 +1469,17 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1236,33 +1507,55 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1273,7 +1566,9 @@
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
@@ -1306,12 +1601,16 @@
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1319,11 +1618,15 @@
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1339,12 +1642,16 @@
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1352,11 +1659,15 @@
       <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1370,6 +1681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Progress Reports/CS2 Project Progress Report.xlsx
+++ b/Progress Reports/CS2 Project Progress Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFD35FC-7E92-4F1B-8F06-4E39EEB9ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBFC4EE-7C87-45DC-AF1D-64C7087474A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Computer Science 2 Project</t>
   </si>
@@ -253,6 +253,30 @@
   </si>
   <si>
     <t>can be done quickly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish code logic for polar bar chart </t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Finish ~80% of logic code</t>
+  </si>
+  <si>
+    <t>Coding, debugging, researching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properly track time usage to allow </t>
+  </si>
+  <si>
+    <t>focusing on other tasks needed to be</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Effiiency in code creating</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1475,7 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1692,7 +1716,9 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1708,13 +1734,17 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1742,12 +1772,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
@@ -1757,9 +1793,13 @@
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -1779,7 +1819,9 @@
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="E14" s="22"/>
@@ -1813,7 +1855,9 @@
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
@@ -1846,16 +1890,22 @@
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
